--- a/mySystem/mySystem/xls/PTV/SOP-MFG-415-R01A  泄漏测试记录.xlsx
+++ b/mySystem/mySystem/xls/PTV/SOP-MFG-415-R01A  泄漏测试记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QMS File-20160301\SOP-MFG-3 生产岗位\306, 2D&amp;3D生产记录20160825\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitpro\mitcpro-master\mitcpro\mySystem\mySystem\xls\PTV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,19 +68,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品批号：</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -571,6 +558,10 @@
       </rPr>
       <t>规格：</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品批号：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1025,6 +1016,45 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1034,9 +1064,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1049,9 +1076,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1067,41 +1091,8 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1409,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22:N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1433,15 +1424,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="15" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="A1" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="12"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -1453,51 +1444,51 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A3" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A3" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="24" t="s">
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
+    </row>
+    <row r="4" spans="1:14" ht="23.25" customHeight="1">
+      <c r="A4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="23"/>
-    </row>
-    <row r="4" spans="1:14" ht="23.25" customHeight="1">
-      <c r="A4" s="36" t="s">
+      <c r="B4" s="39" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>13</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>0</v>
@@ -1517,28 +1508,28 @@
       <c r="H4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="18" t="s">
+      <c r="M4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A5" s="37"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1557,17 +1548,17 @@
       <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A6" s="38"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1576,11 +1567,11 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="33"/>
     </row>
     <row r="7" spans="1:14" ht="20.25" customHeight="1">
       <c r="A7" s="10">
@@ -1853,34 +1844,29 @@
       <c r="N21" s="7"/>
     </row>
     <row r="22" spans="1:14" s="2" customFormat="1" ht="47.25" customHeight="1" thickBot="1">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="40"/>
-      <c r="N22" s="41"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="L22:N22"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="L4:L6"/>
@@ -1892,6 +1878,11 @@
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="L22:N22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/PTV/SOP-MFG-415-R01A  泄漏测试记录.xlsx
+++ b/mySystem/mySystem/xls/PTV/SOP-MFG-415-R01A  泄漏测试记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitpro\mitcpro-master\mitcpro\mySystem\mySystem\xls\PTV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitpro\newnew\mitcpro\mySystem\mySystem\xls\PTV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -967,7 +967,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -992,12 +992,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1016,6 +1010,42 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1034,9 +1064,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1055,44 +1082,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1400,16 +1403,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22:N22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="42" customWidth="1"/>
+    <col min="3" max="4" width="8.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.375" style="1" bestFit="1" customWidth="1"/>
@@ -1419,117 +1421,117 @@
     <col min="11" max="11" width="7.375" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.875" style="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="21.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="15" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:14" s="13" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="41" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="34" t="s">
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="35"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:14" ht="23.25" customHeight="1">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="40"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1548,16 +1550,16 @@
       <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="33"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="19"/>
     </row>
     <row r="6" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="40" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="4"/>
@@ -1567,17 +1569,17 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="33"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="19"/>
     </row>
     <row r="7" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A7" s="10">
+      <c r="A7" s="8">
         <v>1</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1592,10 +1594,10 @@
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A8" s="10">
+      <c r="A8" s="8">
         <v>2</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1610,10 +1612,10 @@
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A9" s="10">
+      <c r="A9" s="8">
         <v>3</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1628,10 +1630,10 @@
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A10" s="10">
+      <c r="A10" s="8">
         <v>4</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1646,10 +1648,10 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <v>5</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1664,10 +1666,10 @@
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A12" s="10">
+      <c r="A12" s="8">
         <v>6</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1682,10 +1684,10 @@
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A13" s="10">
+      <c r="A13" s="8">
         <v>7</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1700,10 +1702,10 @@
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A14" s="10">
+      <c r="A14" s="8">
         <v>8</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1718,10 +1720,10 @@
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A15" s="10">
+      <c r="A15" s="8">
         <v>9</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1736,10 +1738,10 @@
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A16" s="10">
+      <c r="A16" s="8">
         <v>10</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1754,10 +1756,10 @@
       <c r="N16" s="7"/>
     </row>
     <row r="17" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A17" s="10">
+      <c r="A17" s="8">
         <v>11</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1772,10 +1774,10 @@
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A18" s="10">
+      <c r="A18" s="8">
         <v>12</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1790,10 +1792,10 @@
       <c r="N18" s="7"/>
     </row>
     <row r="19" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A19" s="10">
+      <c r="A19" s="8">
         <v>13</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1808,10 +1810,10 @@
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A20" s="10">
+      <c r="A20" s="8">
         <v>14</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1826,10 +1828,10 @@
       <c r="N20" s="7"/>
     </row>
     <row r="21" spans="1:14" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A21" s="10">
+      <c r="A21" s="8">
         <v>15</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1844,29 +1846,34 @@
       <c r="N21" s="7"/>
     </row>
     <row r="22" spans="1:14" s="2" customFormat="1" ht="47.25" customHeight="1" thickBot="1">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18" t="s">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="26" t="s">
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="27"/>
-      <c r="N22" s="28"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="L22:N22"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="L4:L6"/>
@@ -1878,11 +1885,6 @@
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="L22:N22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
